--- a/cmd/workers.xlsx
+++ b/cmd/workers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UserPDFMaker\cmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UserPDFMaker\cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27320DAB-0510-414B-B793-33F664C48C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4065" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4065" windowWidth="21600" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Мич</t>
   </si>
@@ -46,12 +45,24 @@
   </si>
   <si>
     <t>Добавленный</t>
+  </si>
+  <si>
+    <t>Бездельник</t>
+  </si>
+  <si>
+    <t>Гомик</t>
+  </si>
+  <si>
+    <t>Дура</t>
+  </si>
+  <si>
+    <t>Менеджер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,64 +373,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -427,14 +450,17 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/cmd/workers.xlsx
+++ b/cmd/workers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Мич</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>Менеджер</t>
+  </si>
+  <si>
+    <t>Уборщик</t>
+  </si>
+  <si>
+    <t>Гарри Поттер</t>
+  </si>
+  <si>
+    <t>Дракон</t>
+  </si>
+  <si>
+    <t>Дейенерис Бурерожденная</t>
+  </si>
+  <si>
+    <t>Куколд</t>
+  </si>
+  <si>
+    <t>Гарик Харламов</t>
+  </si>
+  <si>
+    <t>Ведущий водолаз</t>
+  </si>
+  <si>
+    <t>Максим Потапов</t>
   </si>
 </sst>
 </file>
@@ -374,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +488,105 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmd/workers.xlsx
+++ b/cmd/workers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UserPDFMaker\cmd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UserPDFMaker\cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B115E93-9EFA-4B8C-B4DD-0E32DC3DC2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4065" windowWidth="21600" windowHeight="10920"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Мич</t>
   </si>
@@ -81,12 +82,15 @@
   </si>
   <si>
     <t>Максим Потапов</t>
+  </si>
+  <si>
+    <t>C:\Github\UserPDFMaker\images\image.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/cmd/workers.xlsx
+++ b/cmd/workers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\UserPDFMaker\cmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B115E93-9EFA-4B8C-B4DD-0E32DC3DC2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90098C18-7103-46B0-81CD-C19ADABF74A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Мич</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Иванов Иван</t>
   </si>
   <si>
-    <t>Петрова Лиза</t>
-  </si>
-  <si>
     <t>Бинго-бонго</t>
   </si>
   <si>
     <t>Добавленный</t>
   </si>
   <si>
-    <t>Бездельник</t>
-  </si>
-  <si>
     <t>Гомик</t>
   </si>
   <si>
@@ -63,18 +57,12 @@
     <t>Уборщик</t>
   </si>
   <si>
-    <t>Гарри Поттер</t>
-  </si>
-  <si>
     <t>Дракон</t>
   </si>
   <si>
     <t>Дейенерис Бурерожденная</t>
   </si>
   <si>
-    <t>Куколд</t>
-  </si>
-  <si>
     <t>Гарик Харламов</t>
   </si>
   <si>
@@ -85,6 +73,15 @@
   </si>
   <si>
     <t>C:\Github\UserPDFMaker\images\image.png</t>
+  </si>
+  <si>
+    <t>Главный разработчки всего  и вся инженер всея руси лучший в мире гофер и вся хуйня</t>
+  </si>
+  <si>
+    <t>Петрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова ЛизаПетрова Лиза</t>
+  </si>
+  <si>
+    <t>Текст составлен из символов алфавита мощностью 256 символов. Определить информационный вес одного символа алфавита. В ответе запишите числовое значение и единицы измерения информации через пробел.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,10 +472,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -489,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,10 +502,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,10 +527,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
